--- a/db.xlsx
+++ b/db.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.liu\Desktop\Project\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.liu\Desktop\Project\web\ReviewWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
   <si>
     <t>UserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rating</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -267,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VerificationId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -364,6 +356,14 @@
   </si>
   <si>
     <t>FormHeadId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +834,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -945,7 +945,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1102,7 +1102,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1246,7 +1246,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1266,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1413,12 +1413,12 @@
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1554,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1678,7 +1678,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1718,33 +1718,39 @@
       <c r="C5" t="s">
         <v>50</v>
       </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1759,7 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Base!$B$1:$B$2</xm:f>
@@ -1764,7 +1770,7 @@
           <x14:formula1>
             <xm:f>Base!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D18</xm:sqref>
+          <xm:sqref>D3:D17</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/db.xlsx
+++ b/db.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.liu\Desktop\Project\web\ReviewWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -17,9 +17,12 @@
     <sheet name="User" sheetId="1" r:id="rId3"/>
     <sheet name="Permissions" sheetId="11" r:id="rId4"/>
     <sheet name="Unit" sheetId="3" r:id="rId5"/>
-    <sheet name="FormHead" sheetId="6" r:id="rId6"/>
-    <sheet name="FormContent" sheetId="7" r:id="rId7"/>
-    <sheet name="Evaluation " sheetId="9" r:id="rId8"/>
+    <sheet name="FormList" sheetId="6" r:id="rId6"/>
+    <sheet name="Form" sheetId="19" r:id="rId7"/>
+    <sheet name="EvaluationList" sheetId="12" r:id="rId8"/>
+    <sheet name="Evaluation" sheetId="9" r:id="rId9"/>
+    <sheet name="EvaluationUnit" sheetId="18" r:id="rId10"/>
+    <sheet name="R-FormContent" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
   <si>
     <t>UserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -171,10 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FormHead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FormContent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -223,95 +222,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerificationId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerificationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者驗證</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permissions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermissionsId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 admin 0 normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(MAX)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowIndex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(MAX)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被評單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationHeadId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationUnitId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT SYSDATETIME()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT SYSDATETIME()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rating</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>評分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerificationId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verification</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerificationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者驗證</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permissions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者權限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PermissionsId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 admin 0 normal</t>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormListId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -319,15 +378,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CreateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryName</t>
+    <t>FormList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationListId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -335,35 +402,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RowIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(MAX)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormHeadId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormHeadId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT SYSDATETIME()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 0</t>
+    <t>Evaluation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -806,7 +846,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -815,12 +855,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D5 D7:D8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3 D6:D26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -834,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -854,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -864,7 +1239,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -879,7 +1254,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -927,10 +1302,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="A2:F11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -945,7 +1321,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1102,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1508,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1149,7 +1526,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1169,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1179,7 +1556,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1197,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1229,10 +1606,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A2:F4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1246,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1266,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1276,7 +1654,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1290,7 +1668,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1324,10 +1702,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <sheetPr codeName="工作表��_4_"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="B7:E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1358,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1368,7 +1747,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1382,21 +1761,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -1404,32 +1784,437 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:D25 D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3 D5:D23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:D25 D3:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Base!$B$1:$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表��_4_"/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="A2:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1449,328 +2234,7 @@
           <x14:formula1>
             <xm:f>Base!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D3 D5:D24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3 D6:D26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D17</xm:sqref>
+          <xm:sqref>D3 D5:D23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="EvaluationList" sheetId="12" r:id="rId8"/>
     <sheet name="Evaluation" sheetId="9" r:id="rId9"/>
     <sheet name="EvaluationUnit" sheetId="18" r:id="rId10"/>
-    <sheet name="R-FormContent" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
   <si>
     <t>UserId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,39 +165,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FormHeadId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormContentId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormContent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckIndicators</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckStandards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查核指標 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">查核標準 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">應檢附資料 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>評核基準</t>
+    <t>Year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT SYSDATETIME()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerificationId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerificationCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者驗證</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permissions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者權限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermissionsId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 admin 0 normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,79 +253,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AttachedInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assessment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KPI連動??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KPILinkage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT SYSDATETIME()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DEFAULT SYSDATETIME()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerificationId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verification</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerificationCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者驗證</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permissions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者權限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PermissionsId</t>
+    <t>被評單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationHeadId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationUnitId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormListId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationListId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvaluationId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Units</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(MAX)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -286,123 +341,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UnitId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 admin 0 normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CategoryName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(MAX)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowIndex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(MAX)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT SYSDATETIME()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被評單位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationHeadId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationUnitId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormListId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationListId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EvaluationId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Units</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR(MAX)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation</t>
+    <t>FullName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,9 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -846,7 +782,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -904,7 +840,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -918,7 +854,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -929,10 +865,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -940,7 +876,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -949,18 +885,18 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -968,16 +904,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -991,191 +927,6 @@
             <xm:f>Base!$A$1:$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D5 D7:D8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$B$1:$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表��_4_"/>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Base!$A$1:$A$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3 D6:D26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -1209,7 +960,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1229,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1239,13 +990,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1254,26 +1005,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1303,10 +1054,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表��_4_"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1321,7 +1072,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1350,14 +1101,14 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1365,120 +1116,131 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="F6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
       <c r="F7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
       <c r="F8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
       <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5"/>
       <c r="F10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>66</v>
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1546,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1556,13 +1318,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1570,14 +1332,14 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1610,7 +1372,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1624,7 +1386,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
@@ -1644,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1654,7 +1416,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1668,7 +1430,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1737,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1747,7 +1509,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1761,22 +1523,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -1784,10 +1546,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -1795,10 +1557,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1806,18 +1568,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1881,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1891,7 +1653,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1905,10 +1667,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1916,10 +1678,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1930,18 +1692,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1736,7 @@
   <sheetPr codeName="工作表��_4_"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2006,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2016,7 +1778,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2030,14 +1792,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2045,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2053,10 +1815,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -2064,10 +1826,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2078,18 +1840,18 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2164,7 +1926,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2178,10 +1940,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2189,10 +1951,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -2203,18 +1965,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
